--- a/cam/DCDC-5V5V3A_2021-09-21-PnP.xlsx
+++ b/cam/DCDC-5V5V3A_2021-09-21-PnP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AG\Documents\EAGLE\projects\DC-DC\cam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BD9790-51E5-4B2B-A81E-ABFE38CA6AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698E2A83-A93B-4034-914D-9E430C277DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="1260" windowWidth="17320" windowHeight="19950" xr2:uid="{1D514CE8-9816-4A2A-A9FC-00F68FB28AF8}"/>
+    <workbookView xWindow="790" yWindow="960" windowWidth="17320" windowHeight="19950" xr2:uid="{1D514CE8-9816-4A2A-A9FC-00F68FB28AF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -556,7 +556,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -911,7 +911,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -979,7 +979,7 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>7</v>
